--- a/datas/DropItem.xlsx
+++ b/datas/DropItem.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="DropItem" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DropItem" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -569,6 +569,446 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>40001</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>40002</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>40003</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>40004</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>40005</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="n">
+        <v>6</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>40006</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="n">
+        <v>11</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" t="n">
+        <v>40101</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="n">
+        <v>12</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" t="n">
+        <v>40102</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="n">
+        <v>13</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>40103</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="n">
+        <v>14</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" t="n">
+        <v>40104</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="n">
+        <v>21</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3</v>
+      </c>
+      <c r="D15" t="n">
+        <v>40201</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="n">
+        <v>22</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3</v>
+      </c>
+      <c r="D16" t="n">
+        <v>40202</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="n">
+        <v>101</v>
+      </c>
+      <c r="C17" t="n">
+        <v>101</v>
+      </c>
+      <c r="D17" t="n">
+        <v>40001</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="n">
+        <v>102</v>
+      </c>
+      <c r="C18" t="n">
+        <v>101</v>
+      </c>
+      <c r="D18" t="n">
+        <v>40002</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="n">
+        <v>103</v>
+      </c>
+      <c r="C19" t="n">
+        <v>101</v>
+      </c>
+      <c r="D19" t="n">
+        <v>40003</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="n">
+        <v>111</v>
+      </c>
+      <c r="C20" t="n">
+        <v>102</v>
+      </c>
+      <c r="D20" t="n">
+        <v>40101</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="n">
+        <v>112</v>
+      </c>
+      <c r="C21" t="n">
+        <v>102</v>
+      </c>
+      <c r="D21" t="n">
+        <v>40102</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="n">
+        <v>121</v>
+      </c>
+      <c r="C22" t="n">
+        <v>103</v>
+      </c>
+      <c r="D22" t="n">
+        <v>40201</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="n">
+        <v>131</v>
+      </c>
+      <c r="C23" t="n">
+        <v>104</v>
+      </c>
+      <c r="D23" t="n">
+        <v>40301</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="n">
+        <v>201</v>
+      </c>
+      <c r="C24" t="n">
+        <v>201</v>
+      </c>
+      <c r="D24" t="n">
+        <v>40201</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="n">
+        <v>202</v>
+      </c>
+      <c r="C25" t="n">
+        <v>201</v>
+      </c>
+      <c r="D25" t="n">
+        <v>40202</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="n">
+        <v>211</v>
+      </c>
+      <c r="C26" t="n">
+        <v>202</v>
+      </c>
+      <c r="D26" t="n">
+        <v>40301</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" t="n">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
